--- a/results/12-2023/contributions-comparison-12-2023.xlsx
+++ b/results/12-2023/contributions-comparison-12-2023.xlsx
@@ -614,7 +614,7 @@
         <v>0.0062</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007</v>
+        <v>0.0064</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
@@ -852,13 +852,13 @@
         <v>-0.0177</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0669</v>
+        <v>-0.067</v>
       </c>
       <c r="R7" t="n">
         <v>-0.029</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.028</v>
+        <v>-0.0281</v>
       </c>
       <c r="T7" t="n">
         <v>-0.0264</v>
@@ -867,7 +867,7 @@
         <v>-0.0257</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.0038</v>
+        <v>-0.0039</v>
       </c>
     </row>
     <row r="8">
@@ -908,7 +908,7 @@
         <v>-0.1753</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0152</v>
+        <v>-0.0063</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -941,31 +941,31 @@
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9" t="n">
-        <v>-0.1414</v>
+        <v>-0.1416</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.3749</v>
+        <v>-0.3754</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.3887</v>
+        <v>-0.3892</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1022</v>
+        <v>-0.1023</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0917</v>
+        <v>-0.0918</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4188</v>
+        <v>-0.4193</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.2829</v>
+        <v>-0.2832</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1223</v>
+        <v>-0.1225</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.1558</v>
+        <v>-0.156</v>
       </c>
     </row>
     <row r="10">
@@ -1006,7 +1006,7 @@
         <v>0.257</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3143</v>
+        <v>0.3088</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -1039,31 +1039,31 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>0.2876</v>
+        <v>0.2822</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1746</v>
+        <v>0.1691</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013</v>
+        <v>-0.107</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2167</v>
+        <v>-0.2225</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1998</v>
+        <v>-0.2054</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.257</v>
+        <v>-0.2626</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1899</v>
+        <v>-0.1953</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1383</v>
+        <v>-0.1435</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0002</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="12">
@@ -1104,7 +1104,7 @@
         <v>-0.0822</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.2574</v>
+        <v>-0.2545</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -1137,31 +1137,31 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>-0.2443</v>
+        <v>-0.2459</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.333</v>
+        <v>-0.3343</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.3843</v>
+        <v>-0.3854</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.2506</v>
+        <v>-0.2539</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.1619</v>
+        <v>-0.161</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0447</v>
+        <v>-0.0441</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0668</v>
+        <v>0.0672</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1778</v>
+        <v>0.1781</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2038</v>
+        <v>0.2041</v>
       </c>
     </row>
     <row r="14">
@@ -1202,7 +1202,7 @@
         <v>0.5795</v>
       </c>
       <c r="M14" t="n">
-        <v>0.365</v>
+        <v>0.3631</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
@@ -1235,31 +1235,31 @@
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15" t="n">
-        <v>0.4665</v>
+        <v>0.4443</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5952</v>
+        <v>0.5743</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4884</v>
+        <v>0.4778</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4917</v>
+        <v>0.4814</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4159</v>
+        <v>0.4056</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1032</v>
+        <v>0.0926</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0856</v>
+        <v>0.0752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0943</v>
+        <v>0.0849</v>
       </c>
       <c r="V15" t="n">
-        <v>0.054</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="16">
@@ -1339,7 +1339,7 @@
         <v>-0.026</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0202</v>
+        <v>-0.0203</v>
       </c>
       <c r="Q17" t="n">
         <v>-0.0213</v>
@@ -1398,7 +1398,7 @@
         <v>-0.0964</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0954</v>
+        <v>-0.0953</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -1431,13 +1431,13 @@
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-0.0964</v>
+        <v>-0.0965</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0619</v>
+        <v>-0.062</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0488</v>
+        <v>-0.0489</v>
       </c>
       <c r="Q19" t="n">
         <v>-0.0433</v>
@@ -1496,7 +1496,7 @@
         <v>0.0051</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0099</v>
+        <v>0.0098</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -1594,7 +1594,7 @@
         <v>-0.0338</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0319</v>
+        <v>0.0368</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
@@ -1627,31 +1627,31 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-0.1628</v>
+        <v>-0.1582</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.2005</v>
+        <v>-0.1872</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.1093</v>
+        <v>-0.0962</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.068</v>
+        <v>-0.0597</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0356</v>
+        <v>-0.0275</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0716</v>
+        <v>-0.0579</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0706</v>
+        <v>-0.0573</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0677</v>
+        <v>-0.0546</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.1185</v>
+        <v>-0.1058</v>
       </c>
     </row>
     <row r="24">
@@ -1692,7 +1692,7 @@
         <v>-0.0096</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.1357</v>
+        <v>-0.1356</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -1725,13 +1725,13 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>-0.1121</v>
+        <v>-0.1122</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1017</v>
+        <v>-0.1018</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0931</v>
+        <v>-0.0932</v>
       </c>
       <c r="Q25" t="n">
         <v>-0.0549</v>
@@ -1743,7 +1743,7 @@
         <v>-0.0295</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0232</v>
+        <v>-0.0233</v>
       </c>
       <c r="U25" t="n">
         <v>0.0002</v>
@@ -1790,7 +1790,7 @@
         <v>-0.505</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.5521</v>
+        <v>-0.5524</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -1823,22 +1823,22 @@
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27" t="n">
-        <v>-0.2243</v>
+        <v>-0.2245</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1757</v>
+        <v>-0.1759</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.3159</v>
+        <v>-0.3163</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2368</v>
+        <v>-0.237</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1046</v>
+        <v>-0.1047</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0355</v>
+        <v>-0.0356</v>
       </c>
       <c r="T27" t="n">
         <v>-0.0289</v>
@@ -1986,7 +1986,7 @@
         <v>-0.3414</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3433</v>
+        <v>0.4203</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2019,31 +2019,31 @@
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>-0.2864</v>
+        <v>-0.2794</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.6884</v>
+        <v>-0.6913</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.5552</v>
+        <v>-0.5446</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.6208</v>
+        <v>-0.6118</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.364</v>
+        <v>-0.3555</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.5678</v>
+        <v>-0.5547</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.4433</v>
+        <v>-0.4308</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.1666</v>
+        <v>-0.1717</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.0095</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="32">
@@ -2084,7 +2084,7 @@
         <v>27063</v>
       </c>
       <c r="M32" t="n">
-        <v>27644.5</v>
+        <v>27610.1</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2117,31 +2117,31 @@
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33" t="n">
-        <v>27922.3488</v>
+        <v>27887.6031</v>
       </c>
       <c r="O33" t="n">
-        <v>28241.677</v>
+        <v>28206.5339</v>
       </c>
       <c r="P33" t="n">
-        <v>28579.1393</v>
+        <v>28543.5763</v>
       </c>
       <c r="Q33" t="n">
-        <v>28923.4801</v>
+        <v>28887.4886</v>
       </c>
       <c r="R33" t="n">
-        <v>29280.0145</v>
+        <v>29243.5794</v>
       </c>
       <c r="S33" t="n">
-        <v>29643.3233</v>
+        <v>29606.436</v>
       </c>
       <c r="T33" t="n">
-        <v>29997.9818</v>
+        <v>29960.6532</v>
       </c>
       <c r="U33" t="n">
-        <v>30347.6377</v>
+        <v>30309.874</v>
       </c>
       <c r="V33" t="n">
-        <v>30684.7874</v>
+        <v>30646.6042</v>
       </c>
     </row>
     <row r="34">
@@ -2182,7 +2182,7 @@
         <v>-0.1321</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.3431</v>
+        <v>-0.3421</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2215,31 +2215,31 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" t="n">
-        <v>-0.0478</v>
+        <v>-0.0479</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.2551</v>
+        <v>-0.2555</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.3658</v>
+        <v>-0.3663</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0161</v>
+        <v>-0.0162</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0099</v>
+        <v>0.01</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3091</v>
+        <v>-0.3094</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.193</v>
+        <v>-0.1932</v>
       </c>
       <c r="U35" t="n">
         <v>-0.0373</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.0879</v>
+        <v>-0.088</v>
       </c>
     </row>
     <row r="36">
@@ -2414,7 +2414,7 @@
         <v>-0.012</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.5953</v>
+        <v>-0.5961</v>
       </c>
       <c r="P39" t="n">
         <v>-0.0001</v>
@@ -2574,7 +2574,7 @@
         <v>0.4364</v>
       </c>
       <c r="M42" t="n">
-        <v>0.6505</v>
+        <v>0.685</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -2610,25 +2610,25 @@
         <v>0.0319</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2159</v>
+        <v>0.2162</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3059</v>
+        <v>0.3062</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0627</v>
+        <v>-0.0628</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1086</v>
+        <v>-0.1088</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2082</v>
+        <v>0.2084</v>
       </c>
       <c r="T43" t="n">
         <v>0.0886</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0688</v>
+        <v>-0.0689</v>
       </c>
       <c r="V43" t="n">
         <v>-0.0116</v>
@@ -2672,7 +2672,7 @@
         <v>-0.0308</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0202</v>
+        <v>-0.0213</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -2705,31 +2705,31 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>-0.0087</v>
+        <v>-0.0095</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0068</v>
+        <v>-0.0076</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.0033</v>
+        <v>-0.0041</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0036</v>
+        <v>0.0028</v>
       </c>
       <c r="R45" t="n">
-        <v>0.019</v>
+        <v>0.0182</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0309</v>
+        <v>0.0302</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0091</v>
+        <v>0.0083</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0083</v>
+        <v>0.0075</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0129</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="46">
@@ -2770,7 +2770,7 @@
         <v>0.1214</v>
       </c>
       <c r="M46" t="n">
-        <v>0.2283</v>
+        <v>0.2222</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -2803,25 +2803,25 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="n">
-        <v>0.1029</v>
+        <v>0.1017</v>
       </c>
       <c r="O47" t="n">
-        <v>0.025</v>
+        <v>0.0239</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.0902</v>
+        <v>-0.0913</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.1654</v>
+        <v>-0.1606</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.0745</v>
+        <v>-0.0741</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0534</v>
+        <v>-0.0532</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0339</v>
+        <v>-0.0338</v>
       </c>
       <c r="U47" t="n">
         <v>-0.0151</v>
@@ -2868,7 +2868,7 @@
         <v>0.3117</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1418</v>
+        <v>0.1822</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -2901,31 +2901,31 @@
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>0.0823</v>
+        <v>0.1165</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1737</v>
+        <v>0.188</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1725</v>
+        <v>0.1893</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1074</v>
+        <v>0.1239</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0726</v>
+        <v>0.0888</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0346</v>
+        <v>0.0505</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.0357</v>
+        <v>-0.02</v>
       </c>
       <c r="U49" t="n">
-        <v>0.011</v>
+        <v>0.0083</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0212</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="50">
@@ -2966,7 +2966,7 @@
         <v>-0.0072</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0142</v>
+        <v>0.0141</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -3296,7 +3296,7 @@
         <v>-0.0007</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="P57" t="n">
         <v>0.0077</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -3685,31 +3685,31 @@
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="66">
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>-0.0055</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -3783,31 +3783,31 @@
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>-0.0054</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>-0.0055</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>-0.0056</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>-0.0056</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>-0.0054</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>-0.0053</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="68">
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
@@ -3881,31 +3881,31 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>-0.0013</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>-0.0033</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="70">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>-0.0019</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
@@ -3979,31 +3979,31 @@
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>-0.0222</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>-0.0209</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>-0.0105</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>-0.0103</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>-0.0102</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>-0.0106</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>-0.0105</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>-0.0094</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="72">
@@ -4175,10 +4175,10 @@
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
@@ -4371,31 +4371,31 @@
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>0.0133</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>0.0083</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>0.0081</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="80">
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
@@ -4469,13 +4469,13 @@
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
@@ -4567,19 +4567,19 @@
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
@@ -4763,31 +4763,31 @@
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>-0.0029</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>0.0085</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>0.0126</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>-0.0051</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="88">
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>-34.4</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
@@ -4861,31 +4861,31 @@
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>-34.7457</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>-35.1431</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>-35.563</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>-35.9915</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>-36.4352</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>-36.8873</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>-37.3286</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>-37.7637</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>-38.1832</v>
       </c>
     </row>
     <row r="90">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -4959,13 +4959,13 @@
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -4974,16 +4974,16 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="92">
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>0.0344</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
@@ -5354,28 +5354,28 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T99" t="n">
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="100">
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
@@ -5449,31 +5449,31 @@
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="102">
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>-0.0062</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
@@ -5547,25 +5547,25 @@
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>-0.0012</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>0.0404</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
@@ -5645,31 +5645,31 @@
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>0.0342</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>0.0157</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>-0.0027</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="106">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
